--- a/data/shelter_addresses.xlsx
+++ b/data/shelter_addresses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RachelClaireSilber/Desktop/R Project /sheltermap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C327B3E7-ED6E-9344-B29B-9137BB1374F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB7F013-D286-9C48-B1BE-2178879BC38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="315">
   <si>
     <t>Name of Shelter or Supportive housing</t>
   </si>
@@ -663,9 +663,6 @@
     <t xml:space="preserve">Mission-House of Ruth Transitional </t>
   </si>
   <si>
-    <t xml:space="preserve">10th Street, Northeast </t>
-  </si>
-  <si>
     <t xml:space="preserve">Community for Creative Non-Violence </t>
   </si>
   <si>
@@ -711,9 +708,6 @@
     <t>Good Hope House</t>
   </si>
   <si>
-    <t xml:space="preserve">V Street, Southeast </t>
-  </si>
-  <si>
     <t xml:space="preserve">Catholic Charities - St. Matthias Mulumba House </t>
   </si>
   <si>
@@ -831,102 +825,9 @@
     <t xml:space="preserve">Massachusetts Avenue, </t>
   </si>
   <si>
-    <t xml:space="preserve">Adams Place, Northeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia Avenue,  Northwest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valley Place, Southeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50th Street, Southeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foote Street, Northeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Street, Northwest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">37th Street, Southeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columbia Road, Northwest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhode Island Avenue, Northeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Road, Northwest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G Street, Southeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girard Street, Northwest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naylor Road, Southeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York Avenue, Northeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5th Street, Northwest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Street, Northwest,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lincoln Road, Northeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N Street, Northwest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good Hope Road, Southeast,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G Place, Northwest,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butterworth Terrace, Northwest,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eye Street, Northeast,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park Road, Northwest,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14th Street, Northwest,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamont Street, Northwest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Capitol Street, Southeast,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chesapeake Street, Southeast, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17th Street, Northwest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Street, Northeast,  </t>
-  </si>
-  <si>
     <t xml:space="preserve">6th Street,  </t>
   </si>
   <si>
-    <t xml:space="preserve">16th Street, Northwest, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">District of Columbia, </t>
-  </si>
-  <si>
     <t xml:space="preserve">New York,  </t>
   </si>
   <si>
@@ -970,6 +871,108 @@
   </si>
   <si>
     <t xml:space="preserve"> East Palmdale Boulevard, </t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adams Place, NE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foote Street, NE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhode Island Avenue, NE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York Avenue, NE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lincoln Road, NE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th Street, NE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye Street, NE,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Street, NE,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Avenue,  NW, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Street, NW, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia Road, NW, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Road, NW, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girard Street, NW, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5th Street, NW, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Street, NW,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N Street, NW, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G Place, NW,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butterworth Terrace, NW,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park Road, NW,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14th Street, NW,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamont Street, NW, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17th Street, NW, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16th Street, NW, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valley Place, SE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50th Street, SE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37th Street, SE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G Street, SE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naylor Road, SE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Hope Road, SE,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Capitol Street, SE,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chesapeake Street, SE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V Street, SE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized Type </t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="66" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="66" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1410,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1445,7 +1448,7 @@
         <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F2" s="2">
         <v>93536</v>
@@ -1471,7 +1474,7 @@
         <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F3" s="2">
         <v>93535</v>
@@ -1500,7 +1503,7 @@
         <v>140</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F4" s="2">
         <v>91350</v>
@@ -1526,7 +1529,7 @@
         <v>141</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -1552,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -1578,7 +1581,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
@@ -1604,7 +1607,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
@@ -1630,7 +1633,7 @@
         <v>142</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -1656,7 +1659,7 @@
         <v>142</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
@@ -1682,7 +1685,7 @@
         <v>143</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>31</v>
@@ -1708,7 +1711,7 @@
         <v>143</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F12" s="2">
         <v>90033</v>
@@ -1734,7 +1737,7 @@
         <v>143</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>37</v>
@@ -1760,7 +1763,7 @@
         <v>143</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>40</v>
@@ -1786,7 +1789,7 @@
         <v>143</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>43</v>
@@ -1812,7 +1815,7 @@
         <v>143</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>46</v>
@@ -1838,7 +1841,7 @@
         <v>143</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F17" s="2">
         <v>90033</v>
@@ -1864,7 +1867,7 @@
         <v>143</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F18" s="2">
         <v>90033</v>
@@ -1890,7 +1893,7 @@
         <v>143</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F19" s="2">
         <v>90013</v>
@@ -1916,7 +1919,7 @@
         <v>143</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>46</v>
@@ -1942,7 +1945,7 @@
         <v>143</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>46</v>
@@ -1968,7 +1971,7 @@
         <v>143</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>46</v>
@@ -1994,7 +1997,7 @@
         <v>143</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F23" s="2">
         <v>90027</v>
@@ -2020,7 +2023,7 @@
         <v>143</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F24" s="2">
         <v>90038</v>
@@ -2046,7 +2049,7 @@
         <v>143</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F25" s="2">
         <v>90028</v>
@@ -2072,7 +2075,7 @@
         <v>143</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F26" s="2">
         <v>90028</v>
@@ -2098,7 +2101,7 @@
         <v>143</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F27" s="2">
         <v>90028</v>
@@ -2124,7 +2127,7 @@
         <v>143</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F28" s="2">
         <v>90025</v>
@@ -2150,7 +2153,7 @@
         <v>143</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F29" s="2">
         <v>90404</v>
@@ -2176,7 +2179,7 @@
         <v>143</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F30" s="2">
         <v>90062</v>
@@ -2202,7 +2205,7 @@
         <v>143</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F31" s="2">
         <v>93536</v>
@@ -2228,7 +2231,7 @@
         <v>144</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F32" s="2">
         <v>90043</v>
@@ -2254,7 +2257,7 @@
         <v>143</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F33" s="2">
         <v>90037</v>
@@ -2280,7 +2283,7 @@
         <v>143</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F34" s="2">
         <v>90062</v>
@@ -2306,7 +2309,7 @@
         <v>143</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F35" s="2">
         <v>90062</v>
@@ -2332,7 +2335,7 @@
         <v>143</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F36" s="2">
         <v>90037</v>
@@ -2358,7 +2361,7 @@
         <v>143</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F37" s="2">
         <v>90201</v>
@@ -2384,7 +2387,7 @@
         <v>145</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F38" s="2">
         <v>90813</v>
@@ -2410,7 +2413,7 @@
         <v>146</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F39" s="2">
         <v>90301</v>
@@ -2430,13 +2433,13 @@
         <v>310</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F40" s="2">
         <v>93550</v>
@@ -2459,7 +2462,7 @@
         <v>141</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F41" s="2">
         <v>91605</v>
@@ -2482,7 +2485,7 @@
         <v>148</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F42" s="2">
         <v>91706</v>
@@ -2505,7 +2508,7 @@
         <v>143</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F43" s="2">
         <v>90018</v>
@@ -2528,7 +2531,7 @@
         <v>149</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F44" s="2">
         <v>90066</v>
@@ -2551,7 +2554,7 @@
         <v>143</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F45" s="2">
         <v>90003</v>
@@ -2574,7 +2577,7 @@
         <v>151</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F46" s="2">
         <v>90670</v>
@@ -2597,7 +2600,7 @@
         <v>150</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F47" s="2">
         <v>90731</v>
@@ -2638,19 +2641,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2667,13 +2670,13 @@
         <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2">
         <v>10017</v>
@@ -2693,13 +2696,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F3" s="2">
         <v>10004</v>
@@ -2719,13 +2722,13 @@
         <v>257</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F4" s="2">
         <v>10001</v>
@@ -2745,13 +2748,13 @@
         <v>402</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F5" s="2">
         <v>10036</v>
@@ -2771,13 +2774,13 @@
         <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F6" s="2">
         <v>10028</v>
@@ -2797,13 +2800,13 @@
         <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F7" s="2">
         <v>10011</v>
@@ -2823,13 +2826,13 @@
         <v>315</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F8" s="2">
         <v>10003</v>
@@ -2849,13 +2852,13 @@
         <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F9" s="2">
         <v>11201</v>
@@ -2875,13 +2878,13 @@
         <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F10" s="2">
         <v>11201</v>
@@ -2901,13 +2904,13 @@
         <v>2402</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F11" s="2">
         <v>11233</v>
@@ -2927,13 +2930,13 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F12" s="2">
         <v>10036</v>
@@ -2953,13 +2956,13 @@
         <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F13" s="2">
         <v>10016</v>
@@ -2979,13 +2982,13 @@
         <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F14" s="2">
         <v>11217</v>
@@ -3005,13 +3008,13 @@
         <v>1122</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F15" s="2">
         <v>10456</v>
@@ -3031,13 +3034,13 @@
         <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F16" s="2">
         <v>11434</v>
@@ -3057,13 +3060,13 @@
         <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F17" s="2">
         <v>10001</v>
@@ -3083,13 +3086,13 @@
         <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F18" s="2">
         <v>10003</v>
@@ -3109,13 +3112,13 @@
         <v>1011</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F19" s="2">
         <v>10022</v>
@@ -3135,13 +3138,13 @@
         <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F20" s="2">
         <v>10524</v>
@@ -3161,13 +3164,13 @@
         <v>395</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F21" s="2">
         <v>10801</v>
@@ -3187,13 +3190,13 @@
         <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F22" s="2">
         <v>11575</v>
@@ -3236,19 +3239,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -3265,13 +3268,13 @@
         <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F2" s="5">
         <v>94107</v>
@@ -3291,13 +3294,13 @@
         <v>2111</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F3" s="5">
         <v>94124</v>
@@ -3317,13 +3320,13 @@
         <v>165</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F4" s="5">
         <v>94110</v>
@@ -3343,13 +3346,13 @@
         <v>330</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F5" s="5">
         <v>94102</v>
@@ -3369,13 +3372,13 @@
         <v>195</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F6" s="5">
         <v>94115</v>
@@ -3395,13 +3398,13 @@
         <v>211</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F7" s="5">
         <v>94103</v>
@@ -3421,13 +3424,13 @@
         <v>995</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F8" s="5">
         <v>94103</v>
@@ -3447,13 +3450,13 @@
         <v>501</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F9" s="5">
         <v>94117</v>
@@ -3473,13 +3476,13 @@
         <v>1601</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F10" s="5">
         <v>94102</v>
@@ -3499,13 +3502,13 @@
         <v>869</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F11" s="5">
         <v>94109</v>
@@ -3525,13 +3528,13 @@
         <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F12" s="5">
         <v>94102</v>
@@ -3551,13 +3554,13 @@
         <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F13" s="5">
         <v>94109</v>
@@ -3576,10 +3579,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3591,37 +3594,41 @@
     <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="91.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="2"/>
+    <col min="8" max="8" width="91.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>167</v>
       </c>
@@ -3629,13 +3636,13 @@
         <v>2210</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F2" s="2">
         <v>20018</v>
@@ -3644,10 +3651,13 @@
         <v>202</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>170</v>
       </c>
@@ -3655,13 +3665,13 @@
         <v>1355</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F3" s="2">
         <v>20002</v>
@@ -3670,10 +3680,13 @@
         <v>202</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>171</v>
       </c>
@@ -3681,13 +3694,13 @@
         <v>2700</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F4" s="2">
         <v>20032</v>
@@ -3696,10 +3709,13 @@
         <v>202</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -3707,13 +3723,13 @@
         <v>1910</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F5" s="2">
         <v>20003</v>
@@ -3722,10 +3738,13 @@
         <v>202</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>173</v>
       </c>
@@ -3733,13 +3752,13 @@
         <v>6010</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F6" s="2">
         <v>20011</v>
@@ -3748,10 +3767,13 @@
         <v>202</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>174</v>
       </c>
@@ -3759,13 +3781,13 @@
         <v>1355</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F7" s="2">
         <v>20020</v>
@@ -3774,10 +3796,13 @@
         <v>202</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>175</v>
       </c>
@@ -3785,13 +3810,13 @@
         <v>5009</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F8" s="2">
         <v>20019</v>
@@ -3800,10 +3825,13 @@
         <v>202</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>175</v>
       </c>
@@ -3811,13 +3839,13 @@
         <v>4274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F9" s="2">
         <v>20019</v>
@@ -3826,10 +3854,13 @@
         <v>202</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>176</v>
       </c>
@@ -3837,13 +3868,13 @@
         <v>611</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F10" s="2">
         <v>20001</v>
@@ -3852,10 +3883,13 @@
         <v>202</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>177</v>
       </c>
@@ -3863,13 +3897,13 @@
         <v>342</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F11" s="2">
         <v>20019</v>
@@ -3878,10 +3912,13 @@
         <v>202</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>178</v>
       </c>
@@ -3889,13 +3926,13 @@
         <v>1419</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F12" s="2">
         <v>20009</v>
@@ -3904,10 +3941,13 @@
         <v>110</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>174</v>
       </c>
@@ -3915,13 +3955,13 @@
         <v>920</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F13" s="2">
         <v>20018</v>
@@ -3930,10 +3970,13 @@
         <v>204</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>174</v>
       </c>
@@ -3941,13 +3984,13 @@
         <v>1433</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F14" s="2">
         <v>20010</v>
@@ -3956,10 +3999,13 @@
         <v>204</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>199</v>
       </c>
@@ -3967,13 +4013,13 @@
         <v>1338</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F15" s="2">
         <v>20003</v>
@@ -3982,10 +4028,13 @@
         <v>204</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>200</v>
       </c>
@@ -3993,13 +4042,13 @@
         <v>1413</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F16" s="2">
         <v>20009</v>
@@ -4008,10 +4057,13 @@
         <v>204</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>201</v>
       </c>
@@ -4019,13 +4071,13 @@
         <v>2601</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F17" s="2">
         <v>20020</v>
@@ -4034,10 +4086,13 @@
         <v>204</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>205</v>
       </c>
@@ -4045,13 +4100,13 @@
         <v>1355</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F18" s="2">
         <v>20002</v>
@@ -4060,10 +4115,13 @@
         <v>206</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>207</v>
       </c>
@@ -4071,13 +4129,13 @@
         <v>810</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F19" s="2">
         <v>20001</v>
@@ -4086,10 +4144,13 @@
         <v>206</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>208</v>
       </c>
@@ -4097,13 +4158,13 @@
         <v>928</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F20" s="2">
         <v>20001</v>
@@ -4112,24 +4173,27 @@
         <v>206</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2">
         <v>425</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F21" s="2">
         <v>20002</v>
@@ -4138,10 +4202,13 @@
         <v>206</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>209</v>
       </c>
@@ -4149,13 +4216,13 @@
         <v>1725</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F22" s="2">
         <v>20002</v>
@@ -4164,10 +4231,13 @@
         <v>206</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>210</v>
       </c>
@@ -4175,13 +4245,13 @@
         <v>651</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F23" s="2">
         <v>20002</v>
@@ -4190,10 +4260,13 @@
         <v>206</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>176</v>
       </c>
@@ -4201,13 +4274,13 @@
         <v>611</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F24" s="2">
         <v>20002</v>
@@ -4216,24 +4289,27 @@
         <v>206</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2">
         <v>1131</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F25" s="2">
         <v>20002</v>
@@ -4242,24 +4318,27 @@
         <v>206</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2">
         <v>1217</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F26" s="2">
         <v>20020</v>
@@ -4268,24 +4347,27 @@
         <v>202</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2">
         <v>471</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F27" s="2">
         <v>20001</v>
@@ -4294,24 +4376,27 @@
         <v>202</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2">
         <v>4200</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F28" s="2">
         <v>20016</v>
@@ -4320,12 +4405,15 @@
         <v>202</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2">
         <v>633</v>
@@ -4337,7 +4425,7 @@
         <v>168</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F29" s="2">
         <v>20001</v>
@@ -4346,24 +4434,27 @@
         <v>202</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="2">
         <v>1318</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F30" s="2">
         <v>20010</v>
@@ -4372,24 +4463,27 @@
         <v>202</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2">
         <v>4326</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F31" s="2">
         <v>20011</v>
@@ -4398,24 +4492,27 @@
         <v>202</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" s="2">
         <v>1717</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F32" s="2">
         <v>20009</v>
@@ -4424,24 +4521,27 @@
         <v>202</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2">
         <v>1333</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F33" s="2">
         <v>20005</v>
@@ -4450,24 +4550,27 @@
         <v>202</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B34" s="2">
         <v>1622</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F34" s="2">
         <v>20010</v>
@@ -4476,24 +4579,27 @@
         <v>202</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2">
         <v>1312</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F35" s="2">
         <v>20003</v>
@@ -4502,142 +4608,160 @@
         <v>202</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="2">
         <v>840</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F36" s="2">
         <v>20032</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="B37" s="2">
         <v>1715</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F37" s="2">
         <v>20020</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B38" s="2">
         <v>621</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F38" s="2">
         <v>20018</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B39" s="2">
         <v>2544</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F39" s="2">
         <v>20009</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B40" s="2">
         <v>635</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F40" s="2">
         <v>20002</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B41" s="2">
         <v>512</v>
@@ -4649,67 +4773,76 @@
         <v>168</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F41" s="2">
         <v>20001</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B42" s="2">
         <v>1545</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F42" s="2">
         <v>20001</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B43" s="2">
         <v>5101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F43" s="2">
         <v>20011</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/shelter_addresses.xlsx
+++ b/data/shelter_addresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RachelClaireSilber/Desktop/R Project /sheltermap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB7F013-D286-9C48-B1BE-2178879BC38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F553499-A24B-B045-9F9C-F3825E0B03EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="315">
   <si>
     <t>Name of Shelter or Supportive housing</t>
   </si>
@@ -2617,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2632,11 +2632,12 @@
     <col min="5" max="5" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="91.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2658,11 +2659,11 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
@@ -2685,10 +2686,13 @@
         <v>112</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>179</v>
       </c>
@@ -2711,10 +2715,13 @@
         <v>112</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>180</v>
       </c>
@@ -2737,10 +2744,13 @@
         <v>112</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>181</v>
       </c>
@@ -2763,10 +2773,13 @@
         <v>112</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>182</v>
       </c>
@@ -2789,10 +2802,13 @@
         <v>112</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>183</v>
       </c>
@@ -2815,10 +2831,13 @@
         <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>184</v>
       </c>
@@ -2841,10 +2860,13 @@
         <v>112</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -2867,10 +2889,13 @@
         <v>112</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
@@ -2893,10 +2918,13 @@
         <v>112</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>96</v>
       </c>
@@ -2919,10 +2947,13 @@
         <v>112</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>97</v>
       </c>
@@ -2945,10 +2976,13 @@
         <v>112</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>185</v>
       </c>
@@ -2971,10 +3005,13 @@
         <v>99</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>186</v>
       </c>
@@ -2997,10 +3034,13 @@
         <v>99</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>187</v>
       </c>
@@ -3023,10 +3063,13 @@
         <v>99</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>188</v>
       </c>
@@ -3049,10 +3092,13 @@
         <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>101</v>
       </c>
@@ -3075,10 +3121,13 @@
         <v>111</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
@@ -3101,10 +3150,13 @@
         <v>112</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>105</v>
       </c>
@@ -3127,10 +3179,13 @@
         <v>112</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>108</v>
       </c>
@@ -3153,10 +3208,13 @@
         <v>111</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
@@ -3179,10 +3237,13 @@
         <v>111</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>107</v>
       </c>
@@ -3205,6 +3266,9 @@
         <v>111</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3215,10 +3279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3230,11 +3294,12 @@
     <col min="5" max="5" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="89" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="89" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3256,11 +3321,11 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>189</v>
       </c>
@@ -3283,10 +3348,13 @@
         <v>165</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>191</v>
       </c>
@@ -3309,10 +3377,13 @@
         <v>165</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>192</v>
       </c>
@@ -3335,10 +3406,13 @@
         <v>165</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>193</v>
       </c>
@@ -3361,10 +3435,13 @@
         <v>165</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>194</v>
       </c>
@@ -3387,10 +3464,13 @@
         <v>110</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -3413,10 +3493,13 @@
         <v>110</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>196</v>
       </c>
@@ -3439,10 +3522,13 @@
         <v>203</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>197</v>
       </c>
@@ -3465,10 +3551,13 @@
         <v>203</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>198</v>
       </c>
@@ -3491,10 +3580,13 @@
         <v>203</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
@@ -3517,10 +3609,13 @@
         <v>111</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
@@ -3543,10 +3638,13 @@
         <v>165</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
@@ -3569,7 +3667,15 @@
         <v>165</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="H14" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="64" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
